--- a/zhibao/Template/NewF_Template.xlsx
+++ b/zhibao/Template/NewF_Template.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -424,11 +424,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"1.5,3.5,15,30"</formula1>
+      <formula1>"1.5,2.5,3.5,15,18,30,60,600"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
